--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -159,7 +159,7 @@
     <t>攻击1名敌人，造成攻击力100%的伤害，并回复10点蓝量。</t>
   </si>
   <si>
-    <t>hero/skywrath/单体射击</t>
+    <t>hero/drow/单体射击</t>
   </si>
   <si>
     <t>base_value 100</t>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·对应元素</t>
     </r>
@@ -198,7 +204,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -208,7 +213,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -226,6 +230,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%</t>
     </r>
     <r>
@@ -233,7 +243,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -243,7 +252,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。爆炸范围150码。火球上限3/4/5个。
@@ -268,6 +276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的</t>
     </r>
@@ -276,7 +290,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -286,7 +299,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -303,6 +315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害。
 线圈伤害间隔1.0s，额外提升40%/70%/100%的</t>
     </r>
@@ -311,7 +329,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害
@@ -328,6 +345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害。
 线圈伤害间隔1.0s，提升30%/50%/70%</t>
     </r>
@@ -336,7 +359,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害
@@ -353,6 +375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>吟唱施法，吟唱3秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
 蓝量消耗：35
 cd：18秒
@@ -363,7 +391,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -373,7 +400,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -389,6 +415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，额外提高50%/70%/100%的</t>
     </r>
     <r>
@@ -396,7 +428,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害。</t>
@@ -406,7 +437,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -423,6 +453,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>吟唱8秒，吟唱期间自身750码范围内开启电闪雷鸣，对范围内的所有敌人造成持续的雷元素打击，每秒造成攻击力320%/330%/350%的雷元素伤害的</t>
     </r>
     <r>
@@ -430,7 +466,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害。</t>
@@ -440,7 +475,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -456,6 +490,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害。
 cd：30秒
 蓝量消耗：50
@@ -467,7 +507,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -477,7 +516,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>·每秒
@@ -492,6 +530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，提升40%/70%/100%的</t>
     </r>
     <r>
@@ -499,7 +543,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害</t>
@@ -509,7 +552,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。
@@ -527,6 +569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，提升10%/20%/30%的</t>
     </r>
     <r>
@@ -534,7 +582,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>技能基础伤害。</t>
@@ -544,7 +591,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -579,7 +625,7 @@
     <t>skywrath_5</t>
   </si>
   <si>
-    <t>技能：</t>
+    <t>奥术分身</t>
   </si>
   <si>
     <t>召唤一个分身，分身只会模仿本体释放的技能，但只会造成25%的伤害
@@ -637,7 +683,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -794,7 +839,6 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1797,9 +1841,9 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2332,7 +2376,7 @@
         <v>46</v>
       </c>
       <c r="Z7" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A7</f>
+        <f t="shared" ref="Z7:Z12" si="0">"abilities/hero/skywrath/skywrath_2/"&amp;A7</f>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a</v>
       </c>
       <c r="AA7" s="11" t="s">
@@ -2400,7 +2444,7 @@
         <v>46</v>
       </c>
       <c r="Z8" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a_a</v>
       </c>
       <c r="AA8" s="11" t="s">
@@ -2468,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="Z9" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a_b</v>
       </c>
       <c r="AA9" s="11" t="s">
@@ -2536,7 +2580,7 @@
         <v>46</v>
       </c>
       <c r="Z10" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b</v>
       </c>
       <c r="AA10" s="11" t="s">
@@ -2604,7 +2648,7 @@
         <v>46</v>
       </c>
       <c r="Z11" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b_a</v>
       </c>
       <c r="AA11" s="11" t="s">
@@ -2672,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="Z12" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_2/"&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b_b</v>
       </c>
       <c r="AA12" s="11" t="s">
@@ -2740,7 +2784,7 @@
         <v>46</v>
       </c>
       <c r="Z13" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A13</f>
+        <f t="shared" ref="Z13:Z18" si="1">"abilities/hero/skywrath/skywrath_3/"&amp;A13</f>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a</v>
       </c>
       <c r="AA13" s="11" t="s">
@@ -2808,7 +2852,7 @@
         <v>46</v>
       </c>
       <c r="Z14" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A14</f>
+        <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a_a</v>
       </c>
       <c r="AA14" s="11" t="s">
@@ -2876,7 +2920,7 @@
         <v>46</v>
       </c>
       <c r="Z15" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A15</f>
+        <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a_b</v>
       </c>
       <c r="AA15" s="11" t="s">
@@ -2944,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="Z16" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A16</f>
+        <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b</v>
       </c>
       <c r="AA16" s="11" t="s">
@@ -3012,7 +3056,7 @@
         <v>46</v>
       </c>
       <c r="Z17" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A17</f>
+        <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b_a</v>
       </c>
       <c r="AA17" s="11" t="s">
@@ -3080,7 +3124,7 @@
         <v>46</v>
       </c>
       <c r="Z18" s="11" t="str">
-        <f>"abilities/hero/skywrath/skywrath_3/"&amp;A18</f>
+        <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b_b</v>
       </c>
       <c r="AA18" s="11" t="s">

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>名字</t>
   </si>
@@ -190,12 +190,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·对应元素</t>
     </r>
@@ -223,6 +217,15 @@
     </r>
   </si>
   <si>
+    <t>base_value 120 140 160 180 240</t>
+  </si>
+  <si>
+    <t>surround_radius 650</t>
+  </si>
+  <si>
+    <t>surround_duration 8</t>
+  </si>
+  <si>
     <t>skywrath_2a_a</t>
   </si>
   <si>
@@ -230,12 +233,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%</t>
     </r>
     <r>
@@ -260,6 +257,9 @@
     </r>
   </si>
   <si>
+    <t>surround_duration 10</t>
+  </si>
+  <si>
     <t>skywrath_2a_b</t>
   </si>
   <si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的</t>
     </r>
@@ -306,6 +300,9 @@
 持续时间:8秒
 蓝量消耗：30</t>
     </r>
+  </si>
+  <si>
+    <t>duration 8</t>
   </si>
   <si>
     <t>skywrath_2b_a</t>
@@ -1840,10 +1837,10 @@
   <sheetPr/>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1861,7 +1858,7 @@
     <col min="12" max="12" width="14.175" customWidth="1"/>
     <col min="13" max="13" width="26.3416666666667" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="15" max="15" width="15.8416666666667" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
     <col min="16" max="16" width="15.175" customWidth="1"/>
     <col min="17" max="17" width="12.8416666666667" customWidth="1"/>
     <col min="18" max="18" width="16.175" customWidth="1"/>
@@ -2317,7 +2314,7 @@
       <c r="AB6" s="22"/>
       <c r="AC6" s="23"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:29">
+    <row r="7" ht="181.5" spans="1:29">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -2353,10 +2350,14 @@
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -2364,10 +2365,10 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W7" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X7" s="18">
         <v>0</v>
@@ -2385,15 +2386,15 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="23"/>
     </row>
-    <row r="8" ht="51.5" customHeight="1" spans="1:29">
+    <row r="8" ht="99" spans="1:29">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2421,10 +2422,14 @@
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -2435,7 +2440,7 @@
         <v>5</v>
       </c>
       <c r="W8" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X8" s="18">
         <v>0</v>
@@ -2453,15 +2458,15 @@
       <c r="AB8" s="22"/>
       <c r="AC8" s="23"/>
     </row>
-    <row r="9" ht="51.5" customHeight="1" spans="1:29">
+    <row r="9" ht="49.5" spans="1:29">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2489,10 +2494,14 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -2503,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="W9" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X9" s="18">
         <v>0</v>
@@ -2521,15 +2530,15 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="23"/>
     </row>
-    <row r="10" ht="51.5" customHeight="1" spans="1:29">
+    <row r="10" ht="132" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2557,9 +2566,11 @@
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O10" s="10"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="10"/>
@@ -2568,10 +2579,10 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W10" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X10" s="18">
         <v>0</v>
@@ -2591,13 +2602,13 @@
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2625,9 +2636,11 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="10"/>
@@ -2636,10 +2649,10 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W11" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X11" s="18">
         <v>0</v>
@@ -2659,13 +2672,13 @@
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2693,9 +2706,11 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="O12" s="10"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="10"/>
@@ -2704,10 +2719,10 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W12" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X12" s="18">
         <v>0</v>
@@ -2727,13 +2742,13 @@
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:29">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -2795,13 +2810,13 @@
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -2863,13 +2878,13 @@
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:29">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -2931,13 +2946,13 @@
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:29">
       <c r="A16" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -2999,13 +3014,13 @@
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:29">
       <c r="A17" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3067,13 +3082,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -3135,13 +3150,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:29">
       <c r="A19" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3203,13 +3218,13 @@
     </row>
     <row r="20" ht="49.5" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3271,13 +3286,13 @@
     </row>
     <row r="21" ht="66" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>名字</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·对应元素</t>
     </r>
@@ -233,6 +239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%</t>
     </r>
     <r>
@@ -276,6 +288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
 伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的</t>
     </r>
@@ -405,6 +423,12 @@
     </r>
   </si>
   <si>
+    <t>base_value 300</t>
+  </si>
+  <si>
+    <t>channel_time 3</t>
+  </si>
+  <si>
     <t>skywrath_3a_a</t>
   </si>
   <si>
@@ -478,6 +502,9 @@
 cd：15秒
 蓝量消耗：35</t>
     </r>
+  </si>
+  <si>
+    <t>channel_time 8</t>
   </si>
   <si>
     <t>skywrath_3b</t>
@@ -1837,10 +1864,10 @@
   <sheetPr/>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2600,7 +2627,7 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="23"/>
     </row>
-    <row r="11" ht="51.5" customHeight="1" spans="1:29">
+    <row r="11" ht="115.5" spans="1:29">
       <c r="A11" s="9" t="s">
         <v>68</v>
       </c>
@@ -2670,7 +2697,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="23"/>
     </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:29">
+    <row r="12" ht="115.5" spans="1:29">
       <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +2767,7 @@
       <c r="AB12" s="22"/>
       <c r="AC12" s="23"/>
     </row>
-    <row r="13" ht="51.5" customHeight="1" spans="1:29">
+    <row r="13" ht="148.5" spans="1:29">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -2776,9 +2803,11 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O13" s="10"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="10"/>
@@ -2808,15 +2837,15 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="23"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:29">
+    <row r="14" ht="115.5" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -2844,9 +2873,11 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="10"/>
@@ -2876,15 +2907,15 @@
       <c r="AB14" s="22"/>
       <c r="AC14" s="23"/>
     </row>
-    <row r="15" ht="51.5" customHeight="1" spans="1:29">
+    <row r="15" ht="115.5" spans="1:29">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -2912,9 +2943,11 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="O15" s="10"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
@@ -2944,15 +2977,15 @@
       <c r="AB15" s="22"/>
       <c r="AC15" s="23"/>
     </row>
-    <row r="16" ht="51.5" customHeight="1" spans="1:29">
+    <row r="16" ht="132" spans="1:29">
       <c r="A16" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -3014,13 +3047,13 @@
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:29">
       <c r="A17" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3082,13 +3115,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -3150,13 +3183,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:29">
       <c r="A19" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3218,13 +3251,13 @@
     </row>
     <row r="20" ht="49.5" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3286,13 +3319,13 @@
     </row>
     <row r="21" ht="66" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>名字</t>
   </si>
@@ -197,7 +197,7 @@
         <charset val="134"/>
       </rPr>
       <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
-伤害系数：攻击力120%/140%/160%/180%/240%·对应元素</t>
+伤害系数：攻击力%base_value%%%·对应元素</t>
     </r>
     <r>
       <rPr>
@@ -208,6 +208,32 @@
       </rPr>
       <t>技能基础伤害</t>
     </r>
+  </si>
+  <si>
+    <t>base_value 120 140 160 180 240</t>
+  </si>
+  <si>
+    <t>surround_radius 650</t>
+  </si>
+  <si>
+    <t>surround_duration 8</t>
+  </si>
+  <si>
+    <t>skywrath_2a_a</t>
+  </si>
+  <si>
+    <t>surround_duration 10</t>
+  </si>
+  <si>
+    <t>skywrath_2a_b</t>
+  </si>
+  <si>
+    <t>skywrath_2b</t>
+  </si>
+  <si>
+    <t>雷电屏障</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -215,37 +241,8 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-伤害间隔：1.0s
-蓝量消耗：30
-持续时间：8秒
-cd：10秒</t>
-    </r>
-  </si>
-  <si>
-    <t>base_value 120 140 160 180 240</t>
-  </si>
-  <si>
-    <t>surround_radius 650</t>
-  </si>
-  <si>
-    <t>surround_duration 8</t>
-  </si>
-  <si>
-    <t>skywrath_2a_a</t>
-  </si>
-  <si>
-    <t>炎爆</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每5秒生成一颗火球环绕自身，触碰到敌人时爆炸造成范围火元素伤害，提升50%</t>
+      <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
+伤害系数：攻击力%base_value%%%·雷元素的</t>
     </r>
     <r>
       <rPr>
@@ -256,6 +253,23 @@
       </rPr>
       <t>技能基础伤害</t>
     </r>
+  </si>
+  <si>
+    <t>duration 8</t>
+  </si>
+  <si>
+    <t>skywrath_2b_a</t>
+  </si>
+  <si>
+    <t>skywrath_2b_b</t>
+  </si>
+  <si>
+    <t>skywrath_3a</t>
+  </si>
+  <si>
+    <t>元素轰炸</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -263,142 +277,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>。爆炸范围150码。火球上限3/4/5个。
-持续时间10秒或触碰到敌人消失。
-蓝量消耗：10</t>
-    </r>
-  </si>
-  <si>
-    <t>surround_duration 10</t>
-  </si>
-  <si>
-    <t>skywrath_2a_b</t>
-  </si>
-  <si>
-    <t>霜降</t>
-  </si>
-  <si>
-    <t>生成一枚常驻的冰块，缠绕周围，对触碰到的敌人造成冰元素伤害。提升30%/40%/50%基础技能伤害。</t>
-  </si>
-  <si>
-    <t>skywrath_2b</t>
-  </si>
-  <si>
-    <t>雷电屏障</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
-伤害系数：攻击力120%/140%/160%/180%/240%·雷元素的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-cd：12秒
-持续时间:8秒
-蓝量消耗：30</t>
-    </r>
-  </si>
-  <si>
-    <t>duration 8</t>
-  </si>
-  <si>
-    <t>skywrath_2b_a</t>
-  </si>
-  <si>
-    <t>感电线圈</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在自身700码处生成一个雷电线圈，对触碰到的敌人造成雷元素伤害。
-线圈伤害间隔1.0s，额外提升40%/70%/100%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害
-cd：12秒
-持续时间:8秒
-蓝量消耗：30</t>
-    </r>
-  </si>
-  <si>
-    <t>skywrath_2b_b</t>
-  </si>
-  <si>
-    <t>极寒冰圈</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在自身550码处生成一个寒冰线圈，对触碰到的敌人造成冰元素伤害。
-线圈伤害间隔1.0s，提升30%/50%/70%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害
-cd：12秒
-持续时间:8秒
-蓝量消耗：30</t>
-    </r>
-  </si>
-  <si>
-    <t>skywrath_3a</t>
-  </si>
-  <si>
-    <t>元素轰炸</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吟唱施法，吟唱3秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
-蓝量消耗：35
-cd：18秒
+      <t>吟唱施法，吟唱%channel_time%秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
 伤害系数：攻击力300%·对应元素</t>
     </r>
     <r>
@@ -410,17 +289,6 @@
       </rPr>
       <t>技能基础伤害</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-生成元素数量：3/4/5/6/8
-爆炸范围：半径200码</t>
-    </r>
   </si>
   <si>
     <t>base_value 300</t>
@@ -432,79 +300,7 @@
     <t>skywrath_3a_a</t>
   </si>
   <si>
-    <t>陨石雨</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吟唱3秒，召唤3枚陨石雨打击向自身范围1000码内随机敌军，对目标及周围单位造成范围火元素伤害，额外提高50%/70%/100%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-cd：12秒
-蓝量消耗：35
-伤害范围：目标半径200码</t>
-    </r>
-  </si>
-  <si>
     <t>skywrath_3a_b</t>
-  </si>
-  <si>
-    <t>奔雷领域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吟唱8秒，吟唱期间自身750码范围内开启电闪雷鸣，对范围内的所有敌人造成持续的雷元素打击，每秒造成攻击力320%/330%/350%的雷元素伤害的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-cd：15秒
-蓝量消耗：35</t>
-    </r>
-  </si>
-  <si>
-    <t>channel_time 8</t>
   </si>
   <si>
     <t>skywrath_3b</t>
@@ -521,10 +317,8 @@
         <charset val="134"/>
       </rPr>
       <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害。
-cd：30秒
-蓝量消耗：50
-持续时间：8/9/10/12/15秒
-伤害系数：攻击力350%的</t>
+持续时间：%duration%秒
+伤害系数：攻击力%base_value%%%的</t>
     </r>
     <r>
       <rPr>
@@ -547,84 +341,21 @@
     </r>
   </si>
   <si>
+    <t>base_value 350</t>
+  </si>
+  <si>
+    <t>duration 8 9 10 12 15</t>
+  </si>
+  <si>
+    <t>radius 600</t>
+  </si>
+  <si>
     <t>skywrath_3b_a</t>
   </si>
   <si>
-    <t>极寒领域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自身为中心召唤法阵，对法阵内的敌人造成持续的冰元素伤害，提升40%/70%/100%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。
-cd：25秒
-蓝量消耗：40
-持续时间：与【法阵】技能相同
-作用范围：自身半径600码</t>
-    </r>
-  </si>
-  <si>
     <t>skywrath_3b_b</t>
   </si>
   <si>
-    <t>死亡空间</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以自身为中心召唤法阵，对法阵内的敌人造成持续的暗元素伤害，提升10%/20%/30%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-cd：20秒
-蓝量消耗：25
-持续时间：8秒
-作用范围：自身半径600码</t>
-    </r>
-  </si>
-  <si>
     <t>skywrath_4a</t>
   </si>
   <si>
@@ -632,6 +363,9 @@
   </si>
   <si>
     <t>最大蓝量提升50/70/100点。</t>
+  </si>
+  <si>
+    <t>value 50 70 100</t>
   </si>
   <si>
     <t>skywrath_4b</t>
@@ -1865,9 +1599,9 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2341,7 +2075,7 @@
       <c r="AB6" s="22"/>
       <c r="AC6" s="23"/>
     </row>
-    <row r="7" ht="181.5" spans="1:29">
+    <row r="7" ht="99" spans="1:29">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -2418,10 +2152,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2455,7 +2189,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="10"/>
@@ -2485,15 +2219,15 @@
       <c r="AB8" s="22"/>
       <c r="AC8" s="23"/>
     </row>
-    <row r="9" ht="49.5" spans="1:29">
+    <row r="9" ht="99" spans="1:29">
       <c r="A9" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2557,15 +2291,15 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="23"/>
     </row>
-    <row r="10" ht="132" spans="1:29">
+    <row r="10" ht="66" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2596,7 +2330,7 @@
         <v>54</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="15"/>
@@ -2627,15 +2361,15 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="23"/>
     </row>
-    <row r="11" ht="115.5" spans="1:29">
+    <row r="11" ht="66" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2666,7 +2400,7 @@
         <v>54</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2697,15 +2431,15 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="23"/>
     </row>
-    <row r="12" ht="115.5" spans="1:29">
+    <row r="12" ht="66" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2736,7 +2470,7 @@
         <v>54</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="15"/>
@@ -2767,15 +2501,15 @@
       <c r="AB12" s="22"/>
       <c r="AC12" s="23"/>
     </row>
-    <row r="13" ht="148.5" spans="1:29">
+    <row r="13" ht="99" spans="1:29">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -2803,10 +2537,10 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="15"/>
@@ -2837,15 +2571,15 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="23"/>
     </row>
-    <row r="14" ht="115.5" spans="1:29">
+    <row r="14" ht="99" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -2873,10 +2607,10 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="15"/>
@@ -2907,15 +2641,15 @@
       <c r="AB14" s="22"/>
       <c r="AC14" s="23"/>
     </row>
-    <row r="15" ht="115.5" spans="1:29">
+    <row r="15" ht="99" spans="1:29">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -2943,10 +2677,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="15"/>
@@ -2977,15 +2711,15 @@
       <c r="AB15" s="22"/>
       <c r="AC15" s="23"/>
     </row>
-    <row r="16" ht="132" spans="1:29">
+    <row r="16" ht="115.5" spans="1:29">
       <c r="A16" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -3013,10 +2747,14 @@
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -3024,7 +2762,7 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="18">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W16" s="18">
         <v>0</v>
@@ -3047,13 +2785,13 @@
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:29">
       <c r="A17" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3081,10 +2819,14 @@
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -3092,7 +2834,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="18">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="W17" s="18">
         <v>0</v>
@@ -3115,13 +2857,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -3149,10 +2891,14 @@
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -3160,7 +2906,7 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W18" s="18">
         <v>0</v>
@@ -3183,13 +2929,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:29">
       <c r="A19" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3217,7 +2963,7 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -3251,13 +2997,13 @@
     </row>
     <row r="20" ht="49.5" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3319,13 +3065,13 @@
     </row>
     <row r="21" ht="66" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>名字</t>
   </si>
@@ -153,13 +153,10 @@
     <t>skywrath_1</t>
   </si>
   <si>
-    <t>单体法术</t>
-  </si>
-  <si>
-    <t>攻击1名敌人，造成攻击力100%的伤害，并回复10点蓝量。</t>
-  </si>
-  <si>
-    <t>hero/drow/单体射击</t>
+    <t>魔法飞弹</t>
+  </si>
+  <si>
+    <t>hero/skywrath/魔法飞弹</t>
   </si>
   <si>
     <t>base_value 100</t>
@@ -177,37 +174,28 @@
     <t>skywrath_1a</t>
   </si>
   <si>
+    <t>hero/skywrath/雷鸣</t>
+  </si>
+  <si>
     <t>skywrath_1b</t>
   </si>
   <si>
+    <t>hero/skywrath/寒风波</t>
+  </si>
+  <si>
     <t>skywrath_1c</t>
   </si>
   <si>
+    <t>hero/skywrath/炎龙</t>
+  </si>
+  <si>
     <t>skywrath_2a</t>
   </si>
   <si>
     <t>元素缠绕</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在自身650码距离生成一种随机元素（风、雷、冰、火四个之中一个），对触碰到的敌人造成对应元素伤害。
-伤害系数：攻击力%base_value%%%·对应元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
+    <t>hero/skywrath/元素缭绕</t>
   </si>
   <si>
     <t>base_value 120 140 160 180 240</t>
@@ -222,37 +210,25 @@
     <t>skywrath_2a_a</t>
   </si>
   <si>
+    <t>hero/skywrath/炎爆</t>
+  </si>
+  <si>
     <t>surround_duration 10</t>
   </si>
   <si>
     <t>skywrath_2a_b</t>
   </si>
   <si>
+    <t>hero/skywrath/霜降</t>
+  </si>
+  <si>
     <t>skywrath_2b</t>
   </si>
   <si>
     <t>雷电屏障</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成一次抵挡3次伤害的屏障，受到攻击时会对攻击者造成高额伤害。
-伤害系数：攻击力%base_value%%%·雷元素的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
+    <t>hero/skywrath/雷电屏障</t>
   </si>
   <si>
     <t>duration 8</t>
@@ -261,34 +237,22 @@
     <t>skywrath_2b_a</t>
   </si>
   <si>
+    <t>hero/skywrath/感电线圈_</t>
+  </si>
+  <si>
     <t>skywrath_2b_b</t>
   </si>
   <si>
+    <t>hero/skywrath/极寒冰圈</t>
+  </si>
+  <si>
     <t>skywrath_3a</t>
   </si>
   <si>
     <t>元素轰炸</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吟唱施法，吟唱%channel_time%秒后在自身1000码范围内随机位置生成数个元素爆炸，对范围内敌人造成伤害。
-伤害系数：攻击力300%·对应元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
+    <t>hero/skywrath/元素轰炸</t>
   </si>
   <si>
     <t>base_value 300</t>
@@ -300,45 +264,22 @@
     <t>skywrath_3a_a</t>
   </si>
   <si>
+    <t>hero/skywrath/陨石雨</t>
+  </si>
+  <si>
     <t>skywrath_3a_b</t>
   </si>
   <si>
+    <t>hero/skywrath/奔雷领域</t>
+  </si>
+  <si>
     <t>skywrath_3b</t>
   </si>
   <si>
     <t>法阵</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以自身为中心召唤法阵，对法阵内敌人造成持续伤害。
-持续时间：%duration%秒
-伤害系数：攻击力%base_value%%%的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能基础伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·每秒
-作用范围：自身半径600码</t>
-    </r>
+    <t>hero/skywrath/法阵</t>
   </si>
   <si>
     <t>base_value 350</t>
@@ -353,16 +294,22 @@
     <t>skywrath_3b_a</t>
   </si>
   <si>
+    <t>hero/skywrath/极寒领域</t>
+  </si>
+  <si>
     <t>skywrath_3b_b</t>
   </si>
   <si>
+    <t>hero/skywrath/死亡空间</t>
+  </si>
+  <si>
     <t>skywrath_4a</t>
   </si>
   <si>
     <t>充沛</t>
   </si>
   <si>
-    <t>最大蓝量提升50/70/100点。</t>
+    <t>hero/skywrath/充沛</t>
   </si>
   <si>
     <t>value 50 70 100</t>
@@ -371,13 +318,10 @@
     <t>skywrath_4b</t>
   </si>
   <si>
-    <t xml:space="preserve">
-盈能模式
-</t>
-  </si>
-  <si>
-    <t>开启状态，技能cd减少50%，蓝量消耗减少50%，持续5/8/12秒。
-cd：40秒</t>
+    <t>盈能模式</t>
+  </si>
+  <si>
+    <t>hero/skywrath/盈能模式</t>
   </si>
   <si>
     <t>skywrath_5</t>
@@ -386,9 +330,7 @@
     <t>奥术分身</t>
   </si>
   <si>
-    <t>召唤一个分身，分身只会模仿本体释放的技能，但只会造成25%的伤害
-cd：80秒
-持续时间：20秒</t>
+    <t>hero/skywrath/奥术分身</t>
   </si>
 </sst>
 </file>
@@ -439,6 +381,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -593,14 +541,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +563,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -896,6 +862,21 @@
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.659993285927915"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,138 +998,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1178,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,14 +1202,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,16 +1592,16 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V19" sqref="V19"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="22.3416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="5" width="9.34166666666667" customWidth="1"/>
     <col min="6" max="6" width="8.175" customWidth="1"/>
     <col min="7" max="7" width="9.34166666666667" customWidth="1"/>
@@ -1688,13 +1681,13 @@
       <c r="U1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -1706,8 +1699,8 @@
       <c r="AA1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A2" s="6" t="s">
@@ -1758,19 +1751,19 @@
       <c r="P2" s="14">
         <v>4</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="21" t="s">
         <v>32</v>
       </c>
       <c r="V2" s="14" t="s">
@@ -1791,7 +1784,7 @@
       <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1802,39 +1795,37 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="K3" s="10">
         <v>0</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="15"/>
@@ -1843,38 +1834,36 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
         <v>0</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_1/"&amp;A3</f>
         <v>abilities/hero/skywrath/skywrath_1/skywrath_1</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" ht="49.5" spans="1:29">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="10">
         <v>1</v>
       </c>
@@ -1894,17 +1883,17 @@
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K4" s="10">
         <v>0</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="15"/>
@@ -1913,27 +1902,27 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="18">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-      <c r="X4" s="18">
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22">
         <v>0</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_1/"&amp;A4</f>
         <v>abilities/hero/skywrath/skywrath_1/skywrath_1a</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:29">
       <c r="A5" s="9" t="s">
@@ -1942,9 +1931,7 @@
       <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="10">
         <v>1</v>
       </c>
@@ -1964,17 +1951,17 @@
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="15"/>
@@ -1983,38 +1970,36 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="18">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18">
+      <c r="V5" s="22">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22">
+        <v>0</v>
+      </c>
+      <c r="X5" s="22">
         <v>0</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_1/"&amp;A5</f>
         <v>abilities/hero/skywrath/skywrath_1/skywrath_1b</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="27"/>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:29">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="10">
         <v>1</v>
       </c>
@@ -2034,17 +2019,17 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K6" s="10">
         <v>0</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="15"/>
@@ -2053,38 +2038,36 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="18">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
         <v>0</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z6" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_1/"&amp;A6</f>
         <v>abilities/hero/skywrath/skywrath_1/skywrath_1c</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="27"/>
     </row>
-    <row r="7" ht="99" spans="1:29">
+    <row r="7" ht="49.5" spans="1:29">
       <c r="A7" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="10">
         <v>1</v>
       </c>
@@ -2104,20 +2087,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K7" s="10">
         <v>0</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="10"/>
@@ -2125,38 +2108,36 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="18">
+      <c r="V7" s="22">
         <v>10</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="22">
         <v>30</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="22">
         <v>0</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="11" t="str">
         <f t="shared" ref="Z7:Z12" si="0">"abilities/hero/skywrath/skywrath_2/"&amp;A7</f>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27"/>
     </row>
-    <row r="8" ht="99" spans="1:29">
+    <row r="8" ht="49.5" spans="1:29">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="10">
         <v>1</v>
       </c>
@@ -2176,20 +2157,20 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K8" s="10">
         <v>0</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="10"/>
@@ -2197,38 +2178,36 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="18">
+      <c r="V8" s="22">
         <v>5</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="22">
         <v>10</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="22">
         <v>0</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a_a</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="27"/>
     </row>
-    <row r="9" ht="99" spans="1:29">
+    <row r="9" ht="49.5" spans="1:29">
       <c r="A9" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="10">
         <v>1</v>
       </c>
@@ -2248,20 +2227,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K9" s="10">
         <v>0</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
@@ -2269,38 +2248,36 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="18">
+      <c r="V9" s="22">
         <v>5</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="22">
         <v>30</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="22">
         <v>0</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2a_b</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="27"/>
     </row>
-    <row r="10" ht="66" spans="1:29">
+    <row r="10" ht="49.5" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="10">
         <v>1</v>
       </c>
@@ -2320,17 +2297,17 @@
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K10" s="10">
         <v>0</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="15"/>
@@ -2339,38 +2316,36 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="18">
+      <c r="V10" s="22">
         <v>12</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="22">
         <v>30</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="22">
         <v>0</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="27"/>
     </row>
-    <row r="11" ht="66" spans="1:29">
+    <row r="11" ht="49.5" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="10">
         <v>1</v>
       </c>
@@ -2390,17 +2365,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2409,38 +2384,36 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="18">
+      <c r="V11" s="22">
         <v>12</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="22">
         <v>30</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="22">
         <v>0</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b_a</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="27"/>
     </row>
-    <row r="12" ht="66" spans="1:29">
+    <row r="12" ht="50.25" spans="1:29">
       <c r="A12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="10">
         <v>1</v>
       </c>
@@ -2460,17 +2433,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="15"/>
@@ -2479,38 +2452,36 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="18">
+      <c r="V12" s="22">
         <v>12</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="22">
         <v>30</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="22">
         <v>0</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/skywrath/skywrath_2/skywrath_2b_b</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="27"/>
     </row>
-    <row r="13" ht="99" spans="1:29">
+    <row r="13" ht="50.25" spans="1:29">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C13" s="13"/>
       <c r="D13" s="10">
         <v>1</v>
       </c>
@@ -2529,18 +2500,18 @@
       <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>43</v>
+      <c r="J13" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="15"/>
@@ -2549,38 +2520,36 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="18">
+      <c r="V13" s="22">
         <v>5</v>
       </c>
-      <c r="W13" s="18">
-        <v>0</v>
-      </c>
-      <c r="X13" s="18">
+      <c r="W13" s="22">
+        <v>0</v>
+      </c>
+      <c r="X13" s="22">
         <v>0</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f t="shared" ref="Z13:Z18" si="1">"abilities/hero/skywrath/skywrath_3/"&amp;A13</f>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="27"/>
     </row>
-    <row r="14" ht="99" spans="1:29">
+    <row r="14" ht="50.25" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="10">
         <v>1</v>
       </c>
@@ -2599,18 +2568,18 @@
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>43</v>
+      <c r="J14" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="15"/>
@@ -2619,38 +2588,36 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="18">
+      <c r="V14" s="22">
         <v>5</v>
       </c>
-      <c r="W14" s="18">
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
+      <c r="W14" s="22">
+        <v>0</v>
+      </c>
+      <c r="X14" s="22">
         <v>0</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a_a</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="27"/>
     </row>
-    <row r="15" ht="99" spans="1:29">
+    <row r="15" ht="50.25" spans="1:29">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="10">
         <v>1</v>
       </c>
@@ -2669,18 +2636,18 @@
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>43</v>
+      <c r="J15" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="15"/>
@@ -2689,38 +2656,36 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="18">
+      <c r="V15" s="22">
         <v>5</v>
       </c>
-      <c r="W15" s="18">
-        <v>0</v>
-      </c>
-      <c r="X15" s="18">
+      <c r="W15" s="22">
+        <v>0</v>
+      </c>
+      <c r="X15" s="22">
         <v>0</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3a_b</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
     </row>
-    <row r="16" ht="115.5" spans="1:29">
+    <row r="16" ht="50.25" spans="1:29">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="10">
         <v>1</v>
       </c>
@@ -2739,21 +2704,21 @@
       <c r="I16" s="10">
         <v>1</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>43</v>
+      <c r="J16" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="10"/>
@@ -2761,38 +2726,36 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="18">
+      <c r="V16" s="22">
         <v>30</v>
       </c>
-      <c r="W16" s="18">
-        <v>0</v>
-      </c>
-      <c r="X16" s="18">
+      <c r="W16" s="22">
+        <v>0</v>
+      </c>
+      <c r="X16" s="22">
         <v>0</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="27"/>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:29">
       <c r="A17" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="10">
         <v>1</v>
       </c>
@@ -2811,21 +2774,21 @@
       <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>43</v>
+      <c r="J17" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="10"/>
@@ -2833,38 +2796,36 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="18">
+      <c r="V17" s="22">
         <v>25</v>
       </c>
-      <c r="W17" s="18">
-        <v>0</v>
-      </c>
-      <c r="X17" s="18">
+      <c r="W17" s="22">
+        <v>0</v>
+      </c>
+      <c r="X17" s="22">
         <v>0</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b_a</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="27"/>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="10">
         <v>1</v>
       </c>
@@ -2883,21 +2844,21 @@
       <c r="I18" s="10">
         <v>1</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>43</v>
+      <c r="J18" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="10"/>
@@ -2905,38 +2866,36 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="18">
+      <c r="V18" s="22">
         <v>20</v>
       </c>
-      <c r="W18" s="18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="18">
+      <c r="W18" s="22">
+        <v>0</v>
+      </c>
+      <c r="X18" s="22">
         <v>0</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>abilities/hero/skywrath/skywrath_3/skywrath_3b_b</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="27"/>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:29">
       <c r="A19" s="9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="10">
         <v>1</v>
       </c>
@@ -2955,15 +2914,15 @@
       <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>43</v>
+      <c r="J19" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2973,38 +2932,36 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="18">
-        <v>5</v>
-      </c>
-      <c r="W19" s="18">
-        <v>0</v>
-      </c>
-      <c r="X19" s="18">
+      <c r="V19" s="22">
+        <v>0</v>
+      </c>
+      <c r="W19" s="22">
+        <v>0</v>
+      </c>
+      <c r="X19" s="22">
         <v>0</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z19" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_4/"&amp;A19</f>
         <v>abilities/hero/skywrath/skywrath_4/skywrath_4a</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="27"/>
     </row>
-    <row r="20" ht="49.5" spans="1:29">
+    <row r="20" ht="50.25" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>87</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C20" s="13"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
@@ -3023,15 +2980,15 @@
       <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>43</v>
+      <c r="J20" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3041,38 +2998,36 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="18">
+      <c r="V20" s="22">
         <v>40</v>
       </c>
-      <c r="W20" s="18">
-        <v>0</v>
-      </c>
-      <c r="X20" s="18">
+      <c r="W20" s="22">
+        <v>0</v>
+      </c>
+      <c r="X20" s="22">
         <v>0</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_4/"&amp;A20</f>
         <v>abilities/hero/skywrath/skywrath_4/skywrath_4b</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="27"/>
     </row>
-    <row r="21" ht="66" spans="1:29">
+    <row r="21" ht="50.25" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>90</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C21" s="13"/>
       <c r="D21" s="10">
         <v>1</v>
       </c>
@@ -3091,15 +3046,15 @@
       <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>43</v>
+      <c r="J21" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3109,27 +3064,27 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="18">
+      <c r="V21" s="22">
         <v>80</v>
       </c>
-      <c r="W21" s="18">
-        <v>0</v>
-      </c>
-      <c r="X21" s="18">
+      <c r="W21" s="22">
+        <v>0</v>
+      </c>
+      <c r="X21" s="22">
         <v>0</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" s="11" t="str">
         <f>"abilities/hero/skywrath/skywrath_5/"&amp;A21</f>
         <v>abilities/hero/skywrath/skywrath_5/skywrath_5</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>名字</t>
   </si>
@@ -174,18 +174,27 @@
     <t>skywrath_1a</t>
   </si>
   <si>
+    <t>雷鸣</t>
+  </si>
+  <si>
     <t>hero/skywrath/雷鸣</t>
   </si>
   <si>
     <t>skywrath_1b</t>
   </si>
   <si>
+    <t>寒风波</t>
+  </si>
+  <si>
     <t>hero/skywrath/寒风波</t>
   </si>
   <si>
     <t>skywrath_1c</t>
   </si>
   <si>
+    <t>炎龙</t>
+  </si>
+  <si>
     <t>hero/skywrath/炎龙</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>skywrath_2a_a</t>
   </si>
   <si>
+    <t>炎爆</t>
+  </si>
+  <si>
     <t>hero/skywrath/炎爆</t>
   </si>
   <si>
@@ -219,6 +231,9 @@
     <t>skywrath_2a_b</t>
   </si>
   <si>
+    <t>霜降</t>
+  </si>
+  <si>
     <t>hero/skywrath/霜降</t>
   </si>
   <si>
@@ -237,12 +252,18 @@
     <t>skywrath_2b_a</t>
   </si>
   <si>
+    <t>感电线圈</t>
+  </si>
+  <si>
     <t>hero/skywrath/感电线圈_</t>
   </si>
   <si>
     <t>skywrath_2b_b</t>
   </si>
   <si>
+    <t>极寒冰圈</t>
+  </si>
+  <si>
     <t>hero/skywrath/极寒冰圈</t>
   </si>
   <si>
@@ -264,12 +285,18 @@
     <t>skywrath_3a_a</t>
   </si>
   <si>
+    <t>陨石雨</t>
+  </si>
+  <si>
     <t>hero/skywrath/陨石雨</t>
   </si>
   <si>
     <t>skywrath_3a_b</t>
   </si>
   <si>
+    <t>奔雷领域</t>
+  </si>
+  <si>
     <t>hero/skywrath/奔雷领域</t>
   </si>
   <si>
@@ -294,10 +321,16 @@
     <t>skywrath_3b_a</t>
   </si>
   <si>
+    <t>极寒领域</t>
+  </si>
+  <si>
     <t>hero/skywrath/极寒领域</t>
   </si>
   <si>
     <t>skywrath_3b_b</t>
+  </si>
+  <si>
+    <t>死亡空间</t>
   </si>
   <si>
     <t>hero/skywrath/死亡空间</t>
@@ -1591,10 +1624,10 @@
   <sheetPr/>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1861,7 +1894,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10">
@@ -1883,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" s="10">
         <v>0</v>
@@ -1926,10 +1959,10 @@
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:29">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10">
@@ -1951,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
@@ -1994,10 +2027,10 @@
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:29">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10">
@@ -2019,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" s="10">
         <v>0</v>
@@ -2062,10 +2095,10 @@
     </row>
     <row r="7" ht="49.5" spans="1:29">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="10">
@@ -2087,20 +2120,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" s="10">
         <v>0</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="10"/>
@@ -2132,10 +2165,10 @@
     </row>
     <row r="8" ht="49.5" spans="1:29">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="10">
@@ -2157,20 +2190,20 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8" s="10">
         <v>0</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="10"/>
@@ -2202,10 +2235,10 @@
     </row>
     <row r="9" ht="49.5" spans="1:29">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="10">
@@ -2227,20 +2260,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K9" s="10">
         <v>0</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
@@ -2249,7 +2282,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W9" s="22">
         <v>30</v>
@@ -2272,10 +2305,10 @@
     </row>
     <row r="10" ht="49.5" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="10">
@@ -2297,17 +2330,17 @@
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K10" s="10">
         <v>0</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="15"/>
@@ -2340,10 +2373,10 @@
     </row>
     <row r="11" ht="49.5" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="10">
@@ -2365,17 +2398,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2408,10 +2441,10 @@
     </row>
     <row r="12" ht="50.25" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="10">
@@ -2433,17 +2466,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="15"/>
@@ -2476,10 +2509,10 @@
     </row>
     <row r="13" ht="50.25" spans="1:29">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="10">
@@ -2501,17 +2534,17 @@
         <v>1</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="15"/>
@@ -2521,7 +2554,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="22">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W13" s="22">
         <v>0</v>
@@ -2544,10 +2577,10 @@
     </row>
     <row r="14" ht="50.25" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="10">
@@ -2569,17 +2602,17 @@
         <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="15"/>
@@ -2589,7 +2622,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W14" s="22">
         <v>0</v>
@@ -2612,10 +2645,10 @@
     </row>
     <row r="15" ht="50.25" spans="1:29">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="10">
@@ -2637,17 +2670,17 @@
         <v>1</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="15"/>
@@ -2657,7 +2690,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W15" s="22">
         <v>0</v>
@@ -2680,10 +2713,10 @@
     </row>
     <row r="16" ht="50.25" spans="1:29">
       <c r="A16" s="9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="10">
@@ -2705,20 +2738,20 @@
         <v>1</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="10"/>
@@ -2750,10 +2783,10 @@
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:29">
       <c r="A17" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="10">
@@ -2775,20 +2808,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="10"/>
@@ -2820,10 +2853,10 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:29">
       <c r="A18" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="10">
@@ -2845,20 +2878,20 @@
         <v>1</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="10"/>
@@ -2890,10 +2923,10 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:29">
       <c r="A19" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="10">
@@ -2915,14 +2948,14 @@
         <v>1</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2956,10 +2989,10 @@
     </row>
     <row r="20" ht="50.25" spans="1:29">
       <c r="A20" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="10">
@@ -2981,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
@@ -3022,10 +3055,10 @@
     </row>
     <row r="21" ht="50.25" spans="1:29">
       <c r="A21" s="9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="10">
@@ -3047,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -1624,10 +1624,10 @@
   <sheetPr/>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2557,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="W13" s="22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X13" s="22">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="W14" s="22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X14" s="22">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="W15" s="22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X15" s="22">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>30</v>
       </c>
       <c r="W16" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X16" s="22">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="W17" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X17" s="22">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="W18" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X18" s="22">
         <v>0</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -1627,7 +1627,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W19" sqref="W19"/>
+      <selection pane="topRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2282,10 +2282,10 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W9" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X9" s="22">
         <v>0</v>

--- a/excels/abilities/hero/skywrath.xlsx
+++ b/excels/abilities/hero/skywrath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="skywrath_skill" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>hero/skywrath/炎爆</t>
   </si>
   <si>
-    <t>surround_duration 10</t>
+    <t>surround_duration 15</t>
   </si>
   <si>
     <t>skywrath_2a_b</t>
@@ -1625,9 +1625,9 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V9" sqref="V9"/>
+      <selection pane="topRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="W7" s="22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X7" s="22">
         <v>0</v>
@@ -2350,10 +2350,10 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W10" s="22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X10" s="22">
         <v>0</v>
@@ -2418,10 +2418,10 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W11" s="22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X11" s="22">
         <v>0</v>
@@ -2486,10 +2486,10 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W12" s="22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X12" s="22">
         <v>0</v>
@@ -2554,10 +2554,10 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="22">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="W13" s="22">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X13" s="22">
         <v>0</v>
@@ -2622,10 +2622,10 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W14" s="22">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X14" s="22">
         <v>0</v>
@@ -2690,10 +2690,10 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="W15" s="22">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X15" s="22">
         <v>0</v>
@@ -2760,10 +2760,10 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="22">
+        <v>20</v>
+      </c>
+      <c r="W16" s="22">
         <v>30</v>
-      </c>
-      <c r="W16" s="22">
-        <v>50</v>
       </c>
       <c r="X16" s="22">
         <v>0</v>
@@ -2830,10 +2830,10 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W17" s="22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X17" s="22">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="W18" s="22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X18" s="22">
         <v>0</v>
